--- a/Compressores.xlsx
+++ b/Compressores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://palmont2-my.sharepoint.com/personal/isaac_dutra_palmont_com_br/Documents/Documentos/modelo suportes app/APP Suporte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{238EF8B1-8038-4109-99C8-6982DA3F0DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA2C560-CB98-4C26-B768-94FF1587E829}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{238EF8B1-8038-4109-99C8-6982DA3F0DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F32339-2ECC-450E-BAB2-1CFD7043EAFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,12 +2315,8 @@
     <tableColumn id="31" xr3:uid="{17FB27B7-213C-42E1-9FDC-8D1CD2C8D07B}" name="Observação" dataDxfId="7"/>
     <tableColumn id="32" xr3:uid="{59AC5AB6-82C2-443F-8168-928EDB5C4C5F}" name="QTD ENVIADA" dataDxfId="6"/>
     <tableColumn id="33" xr3:uid="{742DEC25-5C35-40B5-8CE3-0FCA631335EA}" name="OBS ROMANEIO" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{4D309817-31B5-4687-8757-022A2407D6E6}" name="PESO Unitário" dataDxfId="4">
-      <calculatedColumnFormula>R2/AF2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="35" xr3:uid="{491098B7-03A3-435C-8E20-A1927EADF1AF}" name="AREA M² Unitário" dataDxfId="3">
-      <calculatedColumnFormula>T2/AF2</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="34" xr3:uid="{4D309817-31B5-4687-8757-022A2407D6E6}" name="PESO Unitário" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{491098B7-03A3-435C-8E20-A1927EADF1AF}" name="AREA M² Unitário" dataDxfId="3"/>
     <tableColumn id="36" xr3:uid="{B7842FE0-D3E8-484C-A796-93D3BC405518}" name="Data Cadastro" dataDxfId="2"/>
     <tableColumn id="37" xr3:uid="{C16C4223-230E-4706-B1E0-37BF1736A074}" name="ID" dataDxfId="1"/>
     <tableColumn id="38" xr3:uid="{D17F5C19-C1F1-4168-ACCC-70F71D994876}" name="QR" dataDxfId="0">
@@ -2651,7 +2647,7 @@
   <dimension ref="A1:AL71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD224"/>
+      <selection activeCell="AF2" sqref="AF2:AI71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2890,18 +2886,10 @@
       <c r="AE2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
       <c r="AJ2" s="6">
         <v>45716</v>
       </c>
@@ -2991,18 +2979,10 @@
       <c r="AE3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
       <c r="AJ3" s="9">
         <v>45716</v>
       </c>
@@ -3092,18 +3072,10 @@
       <c r="AE4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
       <c r="AJ4" s="6">
         <v>45716</v>
       </c>
@@ -3193,18 +3165,10 @@
       <c r="AE5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
       <c r="AJ5" s="9">
         <v>45716</v>
       </c>
@@ -3294,18 +3258,10 @@
       <c r="AE6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
       <c r="AJ6" s="6">
         <v>45716</v>
       </c>
@@ -3395,18 +3351,10 @@
       <c r="AE7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
       <c r="AJ7" s="9">
         <v>45716</v>
       </c>
@@ -3496,18 +3444,10 @@
       <c r="AE8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
       <c r="AJ8" s="6">
         <v>45716</v>
       </c>
@@ -3597,18 +3537,10 @@
       <c r="AE9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
       <c r="AJ9" s="9">
         <v>45716</v>
       </c>
@@ -3698,18 +3630,10 @@
       <c r="AE10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="6">
         <v>45716</v>
       </c>
@@ -3799,18 +3723,10 @@
       <c r="AE11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
       <c r="AJ11" s="9">
         <v>45716</v>
       </c>
@@ -3900,18 +3816,10 @@
       <c r="AE12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
       <c r="AJ12" s="6">
         <v>45716</v>
       </c>
@@ -4001,18 +3909,10 @@
       <c r="AE13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
       <c r="AJ13" s="9">
         <v>45716</v>
       </c>
@@ -4102,18 +4002,10 @@
       <c r="AE14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
       <c r="AJ14" s="6">
         <v>45716</v>
       </c>
@@ -4203,18 +4095,10 @@
       <c r="AE15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
       <c r="AJ15" s="9">
         <v>45716</v>
       </c>
@@ -4304,18 +4188,10 @@
       <c r="AE16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
       <c r="AJ16" s="6">
         <v>45716</v>
       </c>
@@ -4405,18 +4281,10 @@
       <c r="AE17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
       <c r="AJ17" s="9">
         <v>45716</v>
       </c>
@@ -4506,18 +4374,10 @@
       <c r="AE18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
       <c r="AJ18" s="6">
         <v>45716</v>
       </c>
@@ -4607,18 +4467,10 @@
       <c r="AE19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
       <c r="AJ19" s="9">
         <v>45716</v>
       </c>
@@ -4708,18 +4560,10 @@
       <c r="AE20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
       <c r="AJ20" s="6">
         <v>45716</v>
       </c>
@@ -4809,18 +4653,10 @@
       <c r="AE21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
       <c r="AJ21" s="9">
         <v>45716</v>
       </c>
@@ -4910,18 +4746,10 @@
       <c r="AE22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
       <c r="AJ22" s="6">
         <v>45716</v>
       </c>
@@ -5011,18 +4839,10 @@
       <c r="AE23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
       <c r="AJ23" s="9">
         <v>45716</v>
       </c>
@@ -5112,18 +4932,10 @@
       <c r="AE24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
       <c r="AJ24" s="6">
         <v>45716</v>
       </c>
@@ -5213,18 +5025,10 @@
       <c r="AE25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
       <c r="AJ25" s="9">
         <v>45716</v>
       </c>
@@ -5314,18 +5118,10 @@
       <c r="AE26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="6">
         <v>45716</v>
       </c>
@@ -5415,18 +5211,10 @@
       <c r="AE27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
       <c r="AJ27" s="9">
         <v>45716</v>
       </c>
@@ -5516,18 +5304,10 @@
       <c r="AE28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
       <c r="AJ28" s="6">
         <v>45716</v>
       </c>
@@ -5617,18 +5397,10 @@
       <c r="AE29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
       <c r="AJ29" s="9">
         <v>45716</v>
       </c>
@@ -5718,18 +5490,10 @@
       <c r="AE30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
       <c r="AJ30" s="6">
         <v>45716</v>
       </c>
@@ -5819,18 +5583,10 @@
       <c r="AE31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
       <c r="AJ31" s="9">
         <v>45716</v>
       </c>
@@ -5920,18 +5676,10 @@
       <c r="AE32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
       <c r="AJ32" s="6">
         <v>45716</v>
       </c>
@@ -6021,18 +5769,10 @@
       <c r="AE33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
       <c r="AJ33" s="9">
         <v>45716</v>
       </c>
@@ -6122,18 +5862,10 @@
       <c r="AE34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
       <c r="AJ34" s="6">
         <v>45716</v>
       </c>
@@ -6223,18 +5955,10 @@
       <c r="AE35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
       <c r="AJ35" s="9">
         <v>45716</v>
       </c>
@@ -6324,18 +6048,10 @@
       <c r="AE36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
       <c r="AJ36" s="6">
         <v>45716</v>
       </c>
@@ -6425,18 +6141,10 @@
       <c r="AE37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
       <c r="AJ37" s="9">
         <v>45716</v>
       </c>
@@ -6526,18 +6234,10 @@
       <c r="AE38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
       <c r="AJ38" s="6">
         <v>45716</v>
       </c>
@@ -6627,18 +6327,10 @@
       <c r="AE39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
       <c r="AJ39" s="9">
         <v>45716</v>
       </c>
@@ -6728,18 +6420,10 @@
       <c r="AE40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
       <c r="AJ40" s="6">
         <v>45716</v>
       </c>
@@ -6829,18 +6513,10 @@
       <c r="AE41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
       <c r="AJ41" s="9">
         <v>45716</v>
       </c>
@@ -6930,18 +6606,10 @@
       <c r="AE42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
       <c r="AJ42" s="6">
         <v>45716</v>
       </c>
@@ -7031,18 +6699,10 @@
       <c r="AE43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
       <c r="AJ43" s="9">
         <v>45716</v>
       </c>
@@ -7132,18 +6792,10 @@
       <c r="AE44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
       <c r="AJ44" s="6">
         <v>45716</v>
       </c>
@@ -7233,18 +6885,10 @@
       <c r="AE45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
       <c r="AJ45" s="9">
         <v>45716</v>
       </c>
@@ -7334,18 +6978,10 @@
       <c r="AE46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
       <c r="AJ46" s="6">
         <v>45716</v>
       </c>
@@ -7435,18 +7071,10 @@
       <c r="AE47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
       <c r="AJ47" s="9">
         <v>45716</v>
       </c>
@@ -7536,18 +7164,10 @@
       <c r="AE48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
       <c r="AJ48" s="6">
         <v>45716</v>
       </c>
@@ -7637,18 +7257,10 @@
       <c r="AE49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF49" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
       <c r="AJ49" s="9">
         <v>45716</v>
       </c>
@@ -7738,18 +7350,10 @@
       <c r="AE50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
       <c r="AJ50" s="6">
         <v>45716</v>
       </c>
@@ -7839,18 +7443,10 @@
       <c r="AE51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
       <c r="AJ51" s="9">
         <v>45716</v>
       </c>
@@ -7940,18 +7536,10 @@
       <c r="AE52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
       <c r="AJ52" s="6">
         <v>45716</v>
       </c>
@@ -8041,18 +7629,10 @@
       <c r="AE53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF53" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
       <c r="AJ53" s="9">
         <v>45716</v>
       </c>
@@ -8142,18 +7722,10 @@
       <c r="AE54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
       <c r="AJ54" s="6">
         <v>45716</v>
       </c>
@@ -8243,18 +7815,10 @@
       <c r="AE55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF55" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
       <c r="AJ55" s="9">
         <v>45716</v>
       </c>
@@ -8344,18 +7908,10 @@
       <c r="AE56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
       <c r="AJ56" s="6">
         <v>45716</v>
       </c>
@@ -8445,18 +8001,10 @@
       <c r="AE57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
       <c r="AJ57" s="9">
         <v>45716</v>
       </c>
@@ -8546,18 +8094,10 @@
       <c r="AE58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
       <c r="AJ58" s="6">
         <v>45716</v>
       </c>
@@ -8647,18 +8187,10 @@
       <c r="AE59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF59" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
       <c r="AJ59" s="9">
         <v>45716</v>
       </c>
@@ -8748,18 +8280,10 @@
       <c r="AE60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
       <c r="AJ60" s="6">
         <v>45716</v>
       </c>
@@ -8849,18 +8373,10 @@
       <c r="AE61" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF61" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
       <c r="AJ61" s="9">
         <v>45716</v>
       </c>
@@ -8950,18 +8466,10 @@
       <c r="AE62" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
       <c r="AJ62" s="6">
         <v>45716</v>
       </c>
@@ -9051,18 +8559,10 @@
       <c r="AE63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF63" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
       <c r="AJ63" s="9">
         <v>45716</v>
       </c>
@@ -9152,18 +8652,10 @@
       <c r="AE64" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF64" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
       <c r="AJ64" s="6">
         <v>45716</v>
       </c>
@@ -9253,18 +8745,10 @@
       <c r="AE65" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
       <c r="AJ65" s="9">
         <v>45716</v>
       </c>
@@ -9354,18 +8838,10 @@
       <c r="AE66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
       <c r="AJ66" s="6">
         <v>45716</v>
       </c>
@@ -9455,18 +8931,10 @@
       <c r="AE67" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF67" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
       <c r="AJ67" s="9">
         <v>45716</v>
       </c>
@@ -9556,18 +9024,10 @@
       <c r="AE68" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
       <c r="AJ68" s="6">
         <v>45716</v>
       </c>
@@ -9657,18 +9117,10 @@
       <c r="AE69" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF69" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
       <c r="AJ69" s="9">
         <v>45716</v>
       </c>
@@ -9758,18 +9210,10 @@
       <c r="AE70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
       <c r="AJ70" s="6">
         <v>45716</v>
       </c>
@@ -9859,18 +9303,10 @@
       <c r="AE71" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF71" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="7">
-        <v>0</v>
-      </c>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
       <c r="AJ71" s="9">
         <v>45716</v>
       </c>
